--- a/Output_Backtest/Risk_Parity_drawdowns.xlsx
+++ b/Output_Backtest/Risk_Parity_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01253812794789555</v>
+        <v>-0.01253811274770689</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.03347833897564678</v>
+        <v>-0.03347833660502109</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.05529010447899574</v>
+        <v>-0.05529006741261011</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.04817076625042027</v>
+        <v>-0.04817080637991644</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.003149136319427148</v>
+        <v>-0.003149058455165776</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01935155392655434</v>
+        <v>-0.01935157273702133</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.02765182978536412</v>
+        <v>-0.0276518336689056</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.01553796295790731</v>
+        <v>-0.0155378979665741</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02890067841720853</v>
+        <v>-0.02890066622514483</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.02294801670764468</v>
+        <v>-0.02294793000425542</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02438176779126698</v>
+        <v>-0.02438157894119939</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01377641726938986</v>
+        <v>-0.01377643011747333</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01576342233429198</v>
+        <v>-0.01576335154798326</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.004384138565948442</v>
+        <v>-0.004384115449455184</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.005076489799903139</v>
+        <v>-0.005076464681522378</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.04328524404466983</v>
+        <v>-0.04328515254651575</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03687749300495927</v>
+        <v>-0.03687749413153742</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.06205418674876842</v>
+        <v>-0.06205416544147531</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.007815118054483672</v>
+        <v>-0.007815074247271575</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.02119152700274827</v>
+        <v>-0.02119151444698915</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.02155035268418684</v>
+        <v>-0.02155033094416858</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.07496931949537999</v>
+        <v>-0.07496933369667275</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.02602592538719558</v>
+        <v>-0.02602582432091335</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.01617418301870559</v>
+        <v>-0.01617416427258092</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.02679514915937649</v>
+        <v>-0.02679509857967869</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005102764269530117</v>
+        <v>-0.005102736605568752</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.008087932333005842</v>
+        <v>-0.008087985068911025</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.009180346829681382</v>
+        <v>-0.009180435750512545</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02413022369326465</v>
+        <v>-0.02413022484316687</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.008561021545264254</v>
+        <v>-0.008561005046760103</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01992721495396862</v>
+        <v>-0.01992721648833098</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.002814042811656618</v>
+        <v>-0.002814069846119573</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.0299027114804085</v>
+        <v>-0.02990275261072066</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03947693682446946</v>
+        <v>-0.03947699410610518</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.04741700093398194</v>
+        <v>-0.04741701173712586</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.09807643011471043</v>
+        <v>-0.09807643479286403</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09477339773011523</v>
+        <v>-0.0947734356060566</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1352376120310824</v>
+        <v>-0.1352376041628388</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1031896684319669</v>
+        <v>-0.103189710369476</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1359618273103693</v>
+        <v>-0.1359618879241529</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1926616332645134</v>
+        <v>-0.1926616267972237</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1836814233781579</v>
+        <v>-0.1836814470543163</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1358856024072554</v>
+        <v>-0.1358856045747676</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1525822879675685</v>
+        <v>-0.1525822504679517</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1023526761092471</v>
+        <v>-0.1023526874563446</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1360261629929866</v>
+        <v>-0.1360261411456238</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1119199969431343</v>
+        <v>-0.1119200374667026</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.107596784674779</v>
+        <v>-0.1075967985453219</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1258129758254552</v>
+        <v>-0.1258129995022748</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.100815924889448</v>
+        <v>-0.1008158957668825</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.0770865038442408</v>
+        <v>-0.07708647761123975</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.09697470458977471</v>
+        <v>-0.09697467744779463</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1253807103280082</v>
+        <v>-0.1253807414627002</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1465131325297462</v>
+        <v>-0.1465131432481261</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.09665431131037286</v>
+        <v>-0.09665429591553973</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.05803975570847125</v>
+        <v>-0.05803968519128185</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.0673633024741533</v>
+        <v>-0.06736323376555875</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.05556064657667478</v>
+        <v>-0.05556063447022787</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.0318084638237287</v>
+        <v>-0.03180844908863462</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.05349464569704719</v>
+        <v>-0.05349460834390347</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.03274567029350187</v>
+        <v>-0.03274562957097937</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.02509141848261243</v>
+        <v>-0.0250913918449377</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.0001097051950093752</v>
+        <v>-0.0001096644461557331</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.01906023617428749</v>
+        <v>-0.0190602248767862</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02795645173018303</v>
+        <v>-0.02795643705828293</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Risk_Parity_drawdowns.xlsx
+++ b/Output_Backtest/Risk_Parity_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.01253811274770689</v>
+        <v>-0.01253808463426942</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.03347833660502109</v>
+        <v>-0.03347824118765519</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.05529006741261011</v>
+        <v>-0.05529012112297971</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.04817080637991644</v>
+        <v>-0.04817088238480793</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.003149058455165776</v>
+        <v>-0.003149091754884981</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01935157273702133</v>
+        <v>-0.0193516449137607</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.0276518336689056</v>
+        <v>-0.02765182559809172</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.0155378979665741</v>
+        <v>-0.01553797283595774</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02890066622514483</v>
+        <v>-0.02890061152263744</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.02294793000425542</v>
+        <v>-0.02294799112701371</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02438157894119939</v>
+        <v>-0.02438158837927239</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01377643011747333</v>
+        <v>-0.01377640098049277</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.01576335154798326</v>
+        <v>-0.01576332730862915</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>-0.004384115449455184</v>
+        <v>-0.004384144595738251</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.005076464681522378</v>
+        <v>-0.005076483195525189</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.04328515254651575</v>
+        <v>-0.04328523756217956</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03687749413153742</v>
+        <v>-0.03687754850227542</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.06205416544147531</v>
+        <v>-0.06205421132444277</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.007815074247271575</v>
+        <v>-0.00781511875537344</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.02119151444698915</v>
+        <v>-0.02119144779127463</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.02155033094416858</v>
+        <v>-0.02155034205876732</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.07496933369667275</v>
+        <v>-0.07496921310612503</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.02602582432091335</v>
+        <v>-0.02602587610484196</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.01617416427258092</v>
+        <v>-0.01617416235867915</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.02679509857967869</v>
+        <v>-0.02679516312526206</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.005102736605568752</v>
+        <v>-0.005102747709918645</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.008087985068911025</v>
+        <v>-0.008088017195823419</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.009180435750512545</v>
+        <v>-0.009180434486495991</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02413022484316687</v>
+        <v>-0.02413019652122279</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.008561005046760103</v>
+        <v>-0.008561078881710319</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01992721648833098</v>
+        <v>-0.01992724999829684</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.002814069846119573</v>
+        <v>-0.002814043540226074</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.02990275261072066</v>
+        <v>-0.02990272916468384</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.03947699410610518</v>
+        <v>-0.03947703011168063</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.04741701173712586</v>
+        <v>-0.04741706151883077</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.09807643479286403</v>
+        <v>-0.09807646006233929</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.0947734356060566</v>
+        <v>-0.09477349662278312</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1352376041628388</v>
+        <v>-0.135237652729606</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.103189710369476</v>
+        <v>-0.1031897075389159</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1359618879241529</v>
+        <v>-0.1359619199302743</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1926616267972237</v>
+        <v>-0.1926616300666616</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1836814470543163</v>
+        <v>-0.1836814830574576</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1358856045747676</v>
+        <v>-0.1358856732526703</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1525822504679517</v>
+        <v>-0.1525822432060122</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1023526874563446</v>
+        <v>-0.1023527332215436</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1360261411456238</v>
+        <v>-0.1360262187680151</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1119200374667026</v>
+        <v>-0.1119200696856715</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1075967985453219</v>
+        <v>-0.1075968382416418</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1258129995022748</v>
+        <v>-0.1258130431128258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1008158957668825</v>
+        <v>-0.1008159584874342</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.07708647761123975</v>
+        <v>-0.07708657412820133</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.09697467744779463</v>
+        <v>-0.09697476992561409</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1253807414627002</v>
+        <v>-0.1253807693604159</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1465131432481261</v>
+        <v>-0.1465132011315651</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.09665429591553973</v>
+        <v>-0.09665438504046306</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.05803968519128185</v>
+        <v>-0.05803982631934329</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.06736323376555875</v>
+        <v>-0.06736336769749941</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.05556063447022787</v>
+        <v>-0.05556075689828765</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.03180844908863462</v>
+        <v>-0.03180858212851939</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.05349460834390347</v>
+        <v>-0.05349472888513973</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.03274562957097937</v>
+        <v>-0.03274579090292273</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.0250913918449377</v>
+        <v>-0.02509152249599543</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.0001096644461557331</v>
+        <v>-0.0001098114255646198</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.0190602248767862</v>
+        <v>-0.01906022831151796</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02795643705828293</v>
+        <v>-0.02246845610840932</v>
       </c>
     </row>
   </sheetData>
